--- a/result/17_pred.xlsx
+++ b/result/17_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,63 +479,63 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38601712.295</v>
+        <v>38601655.895</v>
       </c>
       <c r="B6" t="n">
-        <v>3334245.6767</v>
+        <v>3334245.9617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38601655.895</v>
+        <v>38601715.8987</v>
       </c>
       <c r="B7" t="n">
-        <v>3334245.9617</v>
+        <v>3334303.4536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38601715.8987</v>
+        <v>38601727.8987</v>
       </c>
       <c r="B8" t="n">
-        <v>3334309.4536</v>
+        <v>3334291.4536</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38601730.8987</v>
+        <v>38601691.8987</v>
       </c>
       <c r="B9" t="n">
-        <v>3334294.4536</v>
+        <v>3334291.4536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38601700.8987</v>
+        <v>38601679.8987</v>
       </c>
       <c r="B10" t="n">
-        <v>3334301.9536</v>
+        <v>3334279.4536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38601730.8987</v>
+        <v>38601739.8987</v>
       </c>
       <c r="B11" t="n">
-        <v>3334309.4536</v>
+        <v>3334279.4536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38601715.8987</v>
+        <v>38601739.8987</v>
       </c>
       <c r="B12" t="n">
-        <v>3334294.4536</v>
+        <v>3334303.4536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38601745.8987</v>
+        <v>38601763.8987</v>
       </c>
       <c r="B13" t="n">
         <v>3334279.4536</v>
@@ -543,234 +543,58 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>38601693.3987</v>
+        <v>38601703.8987</v>
       </c>
       <c r="B14" t="n">
-        <v>3334286.9536</v>
+        <v>3334279.4536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38601678.3987</v>
+        <v>38601739.8987</v>
       </c>
       <c r="B15" t="n">
-        <v>3334279.4536</v>
+        <v>3334255.4536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38601745.8987</v>
+        <v>38601691.8987</v>
       </c>
       <c r="B16" t="n">
-        <v>3334294.4536</v>
+        <v>3334267.4536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38601730.8987</v>
+        <v>38601727.8987</v>
       </c>
       <c r="B17" t="n">
-        <v>3334279.4536</v>
+        <v>3334267.4536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>38601663.3987</v>
+        <v>38601763.8987</v>
       </c>
       <c r="B18" t="n">
-        <v>3334279.4536</v>
+        <v>3334303.4536</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38601745.8987</v>
+        <v>38601667.8987</v>
       </c>
       <c r="B19" t="n">
-        <v>3334264.4536</v>
+        <v>3334303.4536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38601760.8987</v>
+        <v>38601667.8987</v>
       </c>
       <c r="B20" t="n">
-        <v>3334279.4536</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>38601685.8987</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3334301.9536</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>38601745.8987</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3334309.4536</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>38601745.8987</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3334249.4536</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>38601685.8987</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3334264.4536</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>38601708.3987</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3334279.4536</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>38601775.8987</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3334279.4536</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>38601685.8987</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3334249.4536</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>38601760.8987</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3334294.4536</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>38601670.8987</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3334294.4536</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>38601670.8987</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3334264.4536</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>38601730.8987</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3334264.4536</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>38601760.8987</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3334264.4536</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>38601775.8987</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3334294.4536</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>38601655.8987</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3334294.4536</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>38601730.8987</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3334249.4536</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>38601655.8987</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3334264.4536</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>38601700.8987</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3334264.4536</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>38601760.8987</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3334309.4536</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38601760.8987</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3334249.4536</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>38601670.8987</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3334309.4536</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>38601670.8987</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3334249.4536</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>38601715.8987</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3334264.4536</v>
+        <v>3334255.4536</v>
       </c>
     </row>
   </sheetData>
